--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H2">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I2">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J2">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>578.092059163202</v>
+        <v>658.7242027828554</v>
       </c>
       <c r="R2">
-        <v>5202.828532468818</v>
+        <v>5928.517825045697</v>
       </c>
       <c r="S2">
-        <v>0.04908631077331042</v>
+        <v>0.04397430088232663</v>
       </c>
       <c r="T2">
-        <v>0.04908631077331043</v>
+        <v>0.04397430088232664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H3">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I3">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J3">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>1904.25570010476</v>
+        <v>3536.403760159731</v>
       </c>
       <c r="R3">
-        <v>17138.30130094284</v>
+        <v>31827.63384143758</v>
       </c>
       <c r="S3">
-        <v>0.1616920447281245</v>
+        <v>0.2360788966515605</v>
       </c>
       <c r="T3">
-        <v>0.1616920447281245</v>
+        <v>0.2360788966515605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H4">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I4">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J4">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>957.2443133172731</v>
+        <v>1876.16055136445</v>
       </c>
       <c r="R4">
-        <v>8615.198819855457</v>
+        <v>16885.44496228005</v>
       </c>
       <c r="S4">
-        <v>0.08128046580935765</v>
+        <v>0.1252464206426748</v>
       </c>
       <c r="T4">
-        <v>0.08128046580935767</v>
+        <v>0.1252464206426749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H5">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I5">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J5">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>2272.538375868685</v>
+        <v>3827.883605258106</v>
       </c>
       <c r="R5">
-        <v>20452.84538281816</v>
+        <v>34450.95244732295</v>
       </c>
       <c r="S5">
-        <v>0.1929632541980177</v>
+        <v>0.2555371499772169</v>
       </c>
       <c r="T5">
-        <v>0.1929632541980177</v>
+        <v>0.255537149977217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>269.9215902740978</v>
+        <v>165.6180478414756</v>
       </c>
       <c r="R6">
-        <v>2429.29431246688</v>
+        <v>1490.56243057328</v>
       </c>
       <c r="S6">
-        <v>0.02291928223992445</v>
+        <v>0.01105612612464672</v>
       </c>
       <c r="T6">
-        <v>0.02291928223992445</v>
+        <v>0.01105612612464673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>889.1312702077512</v>
@@ -883,10 +883,10 @@
         <v>8002.18143186976</v>
       </c>
       <c r="S7">
-        <v>0.07549692675395264</v>
+        <v>0.05935553276291208</v>
       </c>
       <c r="T7">
-        <v>0.07549692675395264</v>
+        <v>0.05935553276291208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>446.9546039180088</v>
+        <v>471.7088679017244</v>
       </c>
       <c r="R8">
-        <v>4022.591435262079</v>
+        <v>4245.37981111552</v>
       </c>
       <c r="S8">
-        <v>0.03795131284321538</v>
+        <v>0.0314897609626922</v>
       </c>
       <c r="T8">
-        <v>0.03795131284321539</v>
+        <v>0.0314897609626922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>1061.089082007644</v>
+        <v>962.4158447328533</v>
       </c>
       <c r="R9">
-        <v>9549.8017380688</v>
+        <v>8661.742602595679</v>
       </c>
       <c r="S9">
-        <v>0.09009801745588368</v>
+        <v>0.06424777433622261</v>
       </c>
       <c r="T9">
-        <v>0.09009801745588368</v>
+        <v>0.06424777433622263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H10">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I10">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J10">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>49.47380540242267</v>
+        <v>39.13472058277156</v>
       </c>
       <c r="R10">
-        <v>445.264248621804</v>
+        <v>352.212485244944</v>
       </c>
       <c r="S10">
-        <v>0.004200864807997673</v>
+        <v>0.002612507587518945</v>
       </c>
       <c r="T10">
-        <v>0.004200864807997673</v>
+        <v>0.002612507587518945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H11">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I11">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J11">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>162.9684657488787</v>
+        <v>210.0972947965831</v>
       </c>
       <c r="R11">
-        <v>1466.716191739908</v>
+        <v>1890.875653169248</v>
       </c>
       <c r="S11">
-        <v>0.01383779733556364</v>
+        <v>0.0140254170363213</v>
       </c>
       <c r="T11">
-        <v>0.01383779733556364</v>
+        <v>0.0140254170363213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H12">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I12">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J12">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>81.92210588082932</v>
+        <v>111.4624582425885</v>
       </c>
       <c r="R12">
-        <v>737.2989529274639</v>
+        <v>1003.162124183296</v>
       </c>
       <c r="S12">
-        <v>0.006956078854103727</v>
+        <v>0.007440873821147722</v>
       </c>
       <c r="T12">
-        <v>0.006956078854103728</v>
+        <v>0.007440873821147725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H13">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I13">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J13">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>194.4865347917267</v>
+        <v>227.4140750898293</v>
       </c>
       <c r="R13">
-        <v>1750.37881312554</v>
+        <v>2046.726675808464</v>
       </c>
       <c r="S13">
-        <v>0.01651402460333022</v>
+        <v>0.01518142937610073</v>
       </c>
       <c r="T13">
-        <v>0.01651402460333022</v>
+        <v>0.01518142937610074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H14">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I14">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J14">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>294.4006845954921</v>
+        <v>133.3262251755298</v>
       </c>
       <c r="R14">
-        <v>2649.606161359428</v>
+        <v>1199.936026579768</v>
       </c>
       <c r="S14">
-        <v>0.02499782390515413</v>
+        <v>0.008900428307636146</v>
       </c>
       <c r="T14">
-        <v>0.02499782390515413</v>
+        <v>0.008900428307636148</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H15">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I15">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J15">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>969.7662731558842</v>
+        <v>715.7705182939396</v>
       </c>
       <c r="R15">
-        <v>8727.896458402956</v>
+        <v>6441.934664645456</v>
       </c>
       <c r="S15">
-        <v>0.08234371655357078</v>
+        <v>0.04778252871411846</v>
       </c>
       <c r="T15">
-        <v>0.08234371655357078</v>
+        <v>0.04778252871411847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H16">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I16">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J16">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>487.488760135672</v>
+        <v>379.7361673973903</v>
       </c>
       <c r="R16">
-        <v>4387.398841221047</v>
+        <v>3417.625506576512</v>
       </c>
       <c r="S16">
-        <v>0.041393104089949</v>
+        <v>0.0253499604394208</v>
       </c>
       <c r="T16">
-        <v>0.04139310408994901</v>
+        <v>0.02534996043942081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H17">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I17">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J17">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>1157.31887857742</v>
+        <v>774.7662365285787</v>
       </c>
       <c r="R17">
-        <v>10415.86990719678</v>
+        <v>6972.896128757207</v>
       </c>
       <c r="S17">
-        <v>0.09826897504854441</v>
+        <v>0.05172089237748331</v>
       </c>
       <c r="T17">
-        <v>0.09826897504854443</v>
+        <v>0.05172089237748333</v>
       </c>
     </row>
   </sheetData>
